--- a/biology/Médecine/Jeux_mondiaux_des_transplantés/Jeux_mondiaux_des_transplantés.xlsx
+++ b/biology/Médecine/Jeux_mondiaux_des_transplantés/Jeux_mondiaux_des_transplantés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeux_mondiaux_des_transplant%C3%A9s</t>
+          <t>Jeux_mondiaux_des_transplantés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les World Transplant Games (WTG) sont un événement sportif international organisé tous les deux ans par la World Transplant Games Federation (WTGF).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeux_mondiaux_des_transplant%C3%A9s</t>
+          <t>Jeux_mondiaux_des_transplantés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeux_mondiaux_des_transplant%C3%A9s</t>
+          <t>Jeux_mondiaux_des_transplantés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jeux_mondiaux_des_transplant%C3%A9s</t>
+          <t>Jeux_mondiaux_des_transplantés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -563,9 +579,11 @@
           <t>Sports pratiqués</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sports pratiqués sont[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sports pratiqués sont :
 Jeux d'été :
 Athlétisme
 Course sur route
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jeux_mondiaux_des_transplant%C3%A9s</t>
+          <t>Jeux_mondiaux_des_transplantés</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,14 +642,16 @@
           <t>Catégories d'âge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Seniors :
 (18-29), (30-39), (40-49), (50-59), (60-69), (70-79) and (80+).
 Doubles : (18-29), (30-49) et (50+).
 Juniors :
 (5 ans et moins), (6-8), (9-11), (12-14) and (15-17).
-Les juniors de 16 ou 17 ans sont autorisés à participer aux compétitions séniors, mais dans ce cas, ils ne doivent participer qu'à la compétition adule[7],[8].
+Les juniors de 16 ou 17 ans sont autorisés à participer aux compétitions séniors, mais dans ce cas, ils ne doivent participer qu'à la compétition adule,.
 </t>
         </is>
       </c>
